--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -16,583 +16,583 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
+    <t>ICH3710-1</t>
+  </si>
+  <si>
+    <t>IIC2133-1</t>
+  </si>
+  <si>
+    <t>IIC2333-2</t>
+  </si>
+  <si>
+    <t>ICT3354-1</t>
+  </si>
+  <si>
+    <t>IEE2683-2</t>
+  </si>
+  <si>
+    <t>ING101G-1</t>
+  </si>
+  <si>
+    <t>IIC3533-1</t>
+  </si>
+  <si>
+    <t>ICE2029-1</t>
+  </si>
+  <si>
+    <t>IEE3254-1</t>
+  </si>
+  <si>
+    <t>IIC2523-1</t>
+  </si>
+  <si>
+    <t>IMT3810-1</t>
+  </si>
+  <si>
+    <t>ICS2123-2</t>
+  </si>
+  <si>
+    <t>IIQ2603-1</t>
+  </si>
+  <si>
+    <t>IIC2433-1</t>
+  </si>
+  <si>
+    <t>ICC3244-1</t>
+  </si>
+  <si>
+    <t>IBM2222-1</t>
+  </si>
+  <si>
+    <t>ICT2233-1</t>
+  </si>
+  <si>
+    <t>ICM3255-1</t>
+  </si>
+  <si>
+    <t>ICH3384-1</t>
+  </si>
+  <si>
+    <t>IIQ3863-1</t>
+  </si>
+  <si>
+    <t>ICT3443-1</t>
+  </si>
+  <si>
+    <t>ICH2114-1</t>
+  </si>
+  <si>
+    <t>ICM3235-1</t>
+  </si>
+  <si>
+    <t>ICC3272-1</t>
+  </si>
+  <si>
+    <t>ICS3742-1</t>
+  </si>
+  <si>
+    <t>IMM2053-1</t>
+  </si>
+  <si>
+    <t>IEE2713-1</t>
+  </si>
+  <si>
+    <t>IEE3610-1</t>
+  </si>
+  <si>
+    <t>IMM2013-1</t>
+  </si>
+  <si>
+    <t>IIC3743-1</t>
+  </si>
+  <si>
+    <t>IEE2213-1</t>
+  </si>
+  <si>
+    <t>IIQ2133-1</t>
+  </si>
+  <si>
+    <t>IIC2613-1</t>
+  </si>
+  <si>
+    <t>IIQ223Q-1</t>
+  </si>
+  <si>
+    <t>IEE2613-1</t>
+  </si>
+  <si>
+    <t>ICM2213-1</t>
+  </si>
+  <si>
+    <t>IIC3103-1</t>
+  </si>
+  <si>
+    <t>IMM3053-1</t>
+  </si>
+  <si>
+    <t>IIQ2693-1</t>
+  </si>
+  <si>
+    <t>ICM2803-1</t>
+  </si>
+  <si>
+    <t>ICS3313-1</t>
+  </si>
+  <si>
+    <t>IIC2713-1</t>
+  </si>
+  <si>
+    <t>IEE2413-1</t>
+  </si>
+  <si>
+    <t>ICE2630-1</t>
+  </si>
+  <si>
+    <t>IEE3694-1</t>
+  </si>
+  <si>
+    <t>ICE3783-1</t>
+  </si>
+  <si>
+    <t>IIQ3853-1</t>
+  </si>
+  <si>
+    <t>IIC2173-1</t>
+  </si>
+  <si>
+    <t>ICE2114-1</t>
+  </si>
+  <si>
+    <t>ICS2121-1</t>
+  </si>
+  <si>
+    <t>IIQ3652-1</t>
+  </si>
+  <si>
+    <t>IEE2273-2</t>
+  </si>
+  <si>
+    <t>ICE3433-1</t>
+  </si>
+  <si>
+    <t>ICC2105-2</t>
+  </si>
+  <si>
+    <t>IEE3313-1</t>
+  </si>
+  <si>
+    <t>IIC2733-2</t>
+  </si>
+  <si>
+    <t>IMT3120-1</t>
+  </si>
+  <si>
+    <t>ICE2313-1</t>
+  </si>
+  <si>
+    <t>IMM3313-1</t>
+  </si>
+  <si>
+    <t>IMT2112-1</t>
+  </si>
+  <si>
+    <t>ICC2514-1</t>
+  </si>
+  <si>
+    <t>ICE3543-1</t>
+  </si>
+  <si>
+    <t>IEE3794-1</t>
+  </si>
+  <si>
+    <t>IIQ3651-1</t>
+  </si>
+  <si>
+    <t>IIQ2003-1</t>
+  </si>
+  <si>
+    <t>IMM1003-1</t>
+  </si>
+  <si>
+    <t>IMM2003-1</t>
+  </si>
+  <si>
+    <t>ICT3435-1</t>
+  </si>
+  <si>
+    <t>IBM2123-1</t>
+  </si>
+  <si>
+    <t>ICE2880-2</t>
+  </si>
+  <si>
+    <t>IIC3113-2</t>
+  </si>
+  <si>
+    <t>ICE2027-1</t>
+  </si>
+  <si>
+    <t>ICH3800-1</t>
+  </si>
+  <si>
+    <t>ICH2304-2</t>
+  </si>
+  <si>
+    <t>IIQ3793-1</t>
+  </si>
+  <si>
+    <t>ICH3564-1</t>
+  </si>
+  <si>
+    <t>ICS2523-3</t>
+  </si>
+  <si>
+    <t>ICH3010-1</t>
+  </si>
+  <si>
+    <t>ICE2833-1</t>
+  </si>
+  <si>
+    <t>ICM2022-1</t>
+  </si>
+  <si>
+    <t>ICE2006-1</t>
+  </si>
+  <si>
+    <t>IEE2273-1</t>
+  </si>
+  <si>
+    <t>ING102G-1</t>
+  </si>
+  <si>
+    <t>IMT2565-1</t>
+  </si>
+  <si>
+    <t>ICE3623-1</t>
+  </si>
+  <si>
+    <t>IIC3810-1</t>
+  </si>
+  <si>
+    <t>IMM3503-1</t>
+  </si>
+  <si>
+    <t>IEE1533-1</t>
+  </si>
+  <si>
+    <t>IBM1005-1</t>
+  </si>
+  <si>
+    <t>ICH3712-1</t>
+  </si>
+  <si>
+    <t>ICS3143-1</t>
+  </si>
+  <si>
+    <t>ICM2003-1</t>
+  </si>
+  <si>
+    <t>ICE2022-1</t>
+  </si>
+  <si>
+    <t>ICE2025-1</t>
+  </si>
+  <si>
+    <t>IEE2103-1</t>
+  </si>
+  <si>
+    <t>ICT2223-1</t>
+  </si>
+  <si>
+    <t>ICM3253-1</t>
+  </si>
+  <si>
+    <t>ICE2403-1</t>
+  </si>
+  <si>
+    <t>ICE2024-1</t>
+  </si>
+  <si>
+    <t>ICH3224-1</t>
+  </si>
+  <si>
+    <t>IEE2313-1</t>
+  </si>
+  <si>
+    <t>ICS2123-4</t>
+  </si>
+  <si>
+    <t>IEE2113-1</t>
+  </si>
+  <si>
+    <t>ICC2105-1</t>
+  </si>
+  <si>
+    <t>IEE2123-1</t>
+  </si>
+  <si>
+    <t>ICM2028-1</t>
+  </si>
+  <si>
+    <t>ICC3464-1</t>
+  </si>
+  <si>
+    <t>IMM2023-1</t>
+  </si>
+  <si>
+    <t>IIQ2313-1</t>
+  </si>
+  <si>
+    <t>ICE3743-1</t>
+  </si>
+  <si>
+    <t>ICE3723-1</t>
+  </si>
+  <si>
+    <t>IIC3675-1</t>
+  </si>
+  <si>
+    <t>IEE3243-1</t>
+  </si>
+  <si>
+    <t>IBM2012-1</t>
+  </si>
+  <si>
+    <t>IIC2143-1</t>
+  </si>
+  <si>
+    <t>IEE2183-1</t>
+  </si>
+  <si>
+    <t>IIC2713-2</t>
+  </si>
+  <si>
+    <t>ICH3341-1</t>
+  </si>
+  <si>
+    <t>IEE3393-1</t>
+  </si>
+  <si>
+    <t>IIC2113-1</t>
+  </si>
+  <si>
+    <t>ICH3390-1</t>
+  </si>
+  <si>
+    <t>IIQ3752-1</t>
+  </si>
+  <si>
+    <t>ICT3283-1</t>
+  </si>
+  <si>
+    <t>ICS2523-4</t>
+  </si>
+  <si>
+    <t>IIC2562-1</t>
+  </si>
+  <si>
+    <t>IIC3633-1</t>
+  </si>
+  <si>
+    <t>ICM3382-1</t>
+  </si>
+  <si>
+    <t>ICT3333-1</t>
+  </si>
+  <si>
+    <t>ICM2313-1</t>
+  </si>
+  <si>
+    <t>ICM2403-1</t>
+  </si>
+  <si>
+    <t>ICE3633-1</t>
+  </si>
+  <si>
+    <t>ICC2204-1</t>
+  </si>
+  <si>
+    <t>ICC2304-1</t>
+  </si>
+  <si>
+    <t>IIC3752-1</t>
+  </si>
+  <si>
+    <t>IRB2001-1</t>
+  </si>
+  <si>
+    <t>ICS3105-1</t>
+  </si>
+  <si>
+    <t>IEE2544-1</t>
+  </si>
+  <si>
+    <t>IIC2333-1</t>
+  </si>
+  <si>
+    <t>ICS2123-3</t>
+  </si>
+  <si>
+    <t>ICM3920-1</t>
+  </si>
+  <si>
+    <t>IIC2713-3</t>
+  </si>
+  <si>
+    <t>ICM3323-1</t>
+  </si>
+  <si>
+    <t>IEE3383-1</t>
+  </si>
+  <si>
+    <t>ICS3413-1</t>
+  </si>
+  <si>
+    <t>IIC2733-1</t>
+  </si>
+  <si>
+    <t>ICE2614-1</t>
+  </si>
+  <si>
+    <t>IEE2473-1</t>
+  </si>
+  <si>
+    <t>ICC3125-1</t>
+  </si>
+  <si>
+    <t>IEE3682-1</t>
+  </si>
+  <si>
+    <t>ICE2604-1</t>
+  </si>
+  <si>
+    <t>ICH2304-1</t>
+  </si>
+  <si>
+    <t>ICC2424-1</t>
+  </si>
+  <si>
+    <t>ICH2604-1</t>
+  </si>
+  <si>
+    <t>ICS2563-1</t>
+  </si>
+  <si>
+    <t>ICM2223-1</t>
+  </si>
+  <si>
+    <t>ICC3454-1</t>
+  </si>
+  <si>
+    <t>ICT3103-1</t>
+  </si>
+  <si>
+    <t>IIC2283-1</t>
+  </si>
+  <si>
+    <t>ICH2103-1</t>
+  </si>
+  <si>
+    <t>ICM3252-1</t>
+  </si>
+  <si>
+    <t>IIC2113-2</t>
+  </si>
+  <si>
+    <t>IIC2143-3</t>
+  </si>
+  <si>
+    <t>ICH3124-1</t>
+  </si>
+  <si>
+    <t>IIQ2633-1</t>
+  </si>
+  <si>
+    <t>IEE1100-1</t>
+  </si>
+  <si>
+    <t>IIQ3843-1</t>
+  </si>
+  <si>
     <t>ICS2563-2</t>
   </si>
   <si>
+    <t>IIC2133-2</t>
+  </si>
+  <si>
+    <t>ICT2904-1</t>
+  </si>
+  <si>
+    <t>ICE2135-1</t>
+  </si>
+  <si>
     <t>ICH2394-1</t>
   </si>
   <si>
+    <t>IEE2683-1</t>
+  </si>
+  <si>
+    <t>IMM2043-1</t>
+  </si>
+  <si>
+    <t>IIC3692-1</t>
+  </si>
+  <si>
+    <t>IIC2173-2</t>
+  </si>
+  <si>
+    <t>ICE2413-1</t>
+  </si>
+  <si>
+    <t>IBM2101-1</t>
+  </si>
+  <si>
+    <t>IIC3686-1</t>
+  </si>
+  <si>
+    <t>IIC2143-2</t>
+  </si>
+  <si>
+    <t>IIC3113-1</t>
+  </si>
+  <si>
     <t>ICC2454-1</t>
   </si>
   <si>
-    <t>IIQ3843-1</t>
-  </si>
-  <si>
-    <t>ICS3413-1</t>
-  </si>
-  <si>
-    <t>ICM3382-1</t>
-  </si>
-  <si>
-    <t>ICE2135-1</t>
-  </si>
-  <si>
-    <t>IRB2001-1</t>
-  </si>
-  <si>
-    <t>IEE2113-1</t>
-  </si>
-  <si>
-    <t>ICS2123-2</t>
-  </si>
-  <si>
-    <t>IIC3686-1</t>
-  </si>
-  <si>
-    <t>IMM3503-1</t>
-  </si>
-  <si>
-    <t>ICM3255-1</t>
-  </si>
-  <si>
-    <t>IIC2133-2</t>
-  </si>
-  <si>
-    <t>IBM1005-1</t>
-  </si>
-  <si>
-    <t>ICE2403-1</t>
-  </si>
-  <si>
-    <t>IEE3383-1</t>
-  </si>
-  <si>
-    <t>IEE2273-2</t>
-  </si>
-  <si>
-    <t>IIC2713-2</t>
-  </si>
-  <si>
-    <t>IMM2043-1</t>
-  </si>
-  <si>
-    <t>IIQ3863-1</t>
+    <t>ICE3243-1</t>
+  </si>
+  <si>
+    <t>ICE2880-1</t>
+  </si>
+  <si>
+    <t>ICS2123-1</t>
+  </si>
+  <si>
+    <t>ICC2414-1</t>
+  </si>
+  <si>
+    <t>ICE2683-1</t>
+  </si>
+  <si>
+    <t>ICE2623-1</t>
+  </si>
+  <si>
+    <t>IIC2133-3</t>
+  </si>
+  <si>
+    <t>ING2031-1</t>
   </si>
   <si>
     <t>IIC2764-1</t>
   </si>
   <si>
-    <t>IIC2113-1</t>
-  </si>
-  <si>
-    <t>ICM3252-1</t>
-  </si>
-  <si>
-    <t>IIQ2633-1</t>
-  </si>
-  <si>
-    <t>IMM2053-1</t>
-  </si>
-  <si>
-    <t>IMM3053-1</t>
-  </si>
-  <si>
-    <t>IIC2143-2</t>
-  </si>
-  <si>
-    <t>IEE2713-1</t>
-  </si>
-  <si>
-    <t>IIC3743-1</t>
-  </si>
-  <si>
-    <t>ICC2304-1</t>
-  </si>
-  <si>
-    <t>IIC2133-1</t>
-  </si>
-  <si>
-    <t>IEE3794-1</t>
-  </si>
-  <si>
-    <t>ICM2223-1</t>
-  </si>
-  <si>
-    <t>ING101G-1</t>
-  </si>
-  <si>
-    <t>IIQ3752-1</t>
-  </si>
-  <si>
-    <t>ICT3283-1</t>
-  </si>
-  <si>
-    <t>ICM2213-1</t>
-  </si>
-  <si>
-    <t>ICT2223-1</t>
-  </si>
-  <si>
-    <t>IMT2565-1</t>
-  </si>
-  <si>
-    <t>ICM2313-1</t>
-  </si>
-  <si>
-    <t>ICE3243-1</t>
-  </si>
-  <si>
-    <t>ICH3800-1</t>
-  </si>
-  <si>
-    <t>ICE2604-1</t>
-  </si>
-  <si>
-    <t>ICS2123-1</t>
-  </si>
-  <si>
-    <t>IEE2313-1</t>
-  </si>
-  <si>
-    <t>ICE2024-1</t>
-  </si>
-  <si>
-    <t>IIQ2313-1</t>
-  </si>
-  <si>
-    <t>ICE3783-1</t>
-  </si>
-  <si>
-    <t>ICT3354-1</t>
-  </si>
-  <si>
-    <t>ICT3333-1</t>
-  </si>
-  <si>
-    <t>ICH3564-1</t>
-  </si>
-  <si>
-    <t>IEE2103-1</t>
-  </si>
-  <si>
-    <t>IIC2733-1</t>
-  </si>
-  <si>
-    <t>IMM1003-1</t>
-  </si>
-  <si>
-    <t>ICM3920-1</t>
-  </si>
-  <si>
-    <t>ICC2424-1</t>
-  </si>
-  <si>
-    <t>IEE2613-1</t>
-  </si>
-  <si>
-    <t>IIQ3651-1</t>
-  </si>
-  <si>
-    <t>ICE3633-1</t>
-  </si>
-  <si>
-    <t>ICC3464-1</t>
-  </si>
-  <si>
-    <t>ICC3125-1</t>
-  </si>
-  <si>
-    <t>IIQ2003-1</t>
-  </si>
-  <si>
-    <t>ICE2683-1</t>
-  </si>
-  <si>
-    <t>ICT3103-1</t>
-  </si>
-  <si>
-    <t>ICE2025-1</t>
-  </si>
-  <si>
-    <t>ICM2403-1</t>
-  </si>
-  <si>
-    <t>ICS3105-1</t>
-  </si>
-  <si>
-    <t>ICM2028-1</t>
-  </si>
-  <si>
-    <t>ICM3235-1</t>
-  </si>
-  <si>
-    <t>IEE2213-1</t>
-  </si>
-  <si>
-    <t>ICC2514-1</t>
-  </si>
-  <si>
-    <t>ICH3710-1</t>
-  </si>
-  <si>
-    <t>ICH2304-1</t>
-  </si>
-  <si>
-    <t>IIC2333-2</t>
-  </si>
-  <si>
-    <t>ICH3712-1</t>
-  </si>
-  <si>
-    <t>ICH3010-1</t>
-  </si>
-  <si>
-    <t>ICH2604-1</t>
-  </si>
-  <si>
-    <t>ICE2027-1</t>
-  </si>
-  <si>
-    <t>IIQ3793-1</t>
-  </si>
-  <si>
-    <t>IMM2013-1</t>
-  </si>
-  <si>
-    <t>ICM2003-1</t>
-  </si>
-  <si>
-    <t>ICS2523-3</t>
-  </si>
-  <si>
-    <t>ICS2123-3</t>
-  </si>
-  <si>
-    <t>IMT3120-1</t>
-  </si>
-  <si>
-    <t>IMM2023-1</t>
-  </si>
-  <si>
-    <t>ICE2623-1</t>
-  </si>
-  <si>
-    <t>IIC3752-1</t>
-  </si>
-  <si>
-    <t>ICS3742-1</t>
-  </si>
-  <si>
-    <t>ICH2304-2</t>
-  </si>
-  <si>
-    <t>ICE2313-1</t>
-  </si>
-  <si>
-    <t>ICC3272-1</t>
-  </si>
-  <si>
-    <t>IEE1533-1</t>
-  </si>
-  <si>
-    <t>ICS2523-4</t>
-  </si>
-  <si>
-    <t>ICS2123-4</t>
-  </si>
-  <si>
-    <t>IIC2113-2</t>
-  </si>
-  <si>
-    <t>IEE2683-1</t>
-  </si>
-  <si>
-    <t>IMT3810-1</t>
-  </si>
-  <si>
-    <t>IIQ2603-1</t>
-  </si>
-  <si>
-    <t>IIC2562-1</t>
-  </si>
-  <si>
-    <t>IIQ223Q-1</t>
-  </si>
-  <si>
-    <t>ICE2833-1</t>
-  </si>
-  <si>
-    <t>ICE2413-1</t>
-  </si>
-  <si>
-    <t>ICE2630-1</t>
-  </si>
-  <si>
-    <t>IIC2173-1</t>
-  </si>
-  <si>
-    <t>IIC2143-3</t>
-  </si>
-  <si>
-    <t>ICE2880-1</t>
-  </si>
-  <si>
-    <t>ICH2114-1</t>
-  </si>
-  <si>
-    <t>ICE3743-1</t>
-  </si>
-  <si>
-    <t>IIC3113-1</t>
-  </si>
-  <si>
-    <t>ICH3384-1</t>
-  </si>
-  <si>
-    <t>ICE2029-1</t>
-  </si>
-  <si>
-    <t>IEE2413-1</t>
-  </si>
-  <si>
-    <t>IIC3103-1</t>
-  </si>
-  <si>
-    <t>IEE2683-2</t>
-  </si>
-  <si>
-    <t>IMM3313-1</t>
+    <t>ICM3553-1</t>
+  </si>
+  <si>
+    <t>ICM3233-1</t>
   </si>
   <si>
     <t>IIQ2043-1</t>
-  </si>
-  <si>
-    <t>IBM2123-1</t>
-  </si>
-  <si>
-    <t>IIC3533-1</t>
-  </si>
-  <si>
-    <t>IEE3610-1</t>
-  </si>
-  <si>
-    <t>IIC3692-1</t>
-  </si>
-  <si>
-    <t>ICH3390-1</t>
-  </si>
-  <si>
-    <t>IEE1100-1</t>
-  </si>
-  <si>
-    <t>IIC2713-3</t>
-  </si>
-  <si>
-    <t>ICC2105-2</t>
-  </si>
-  <si>
-    <t>ICS3313-1</t>
-  </si>
-  <si>
-    <t>IIC3810-1</t>
-  </si>
-  <si>
-    <t>IIQ3853-1</t>
-  </si>
-  <si>
-    <t>IBM2012-1</t>
-  </si>
-  <si>
-    <t>ICE2880-2</t>
-  </si>
-  <si>
-    <t>ICC3244-1</t>
-  </si>
-  <si>
-    <t>ING102G-1</t>
-  </si>
-  <si>
-    <t>ICE3543-1</t>
-  </si>
-  <si>
-    <t>IIQ3652-1</t>
-  </si>
-  <si>
-    <t>IIQ2693-1</t>
-  </si>
-  <si>
-    <t>ICE3433-1</t>
-  </si>
-  <si>
-    <t>IIC2713-1</t>
-  </si>
-  <si>
-    <t>IIC3633-1</t>
-  </si>
-  <si>
-    <t>IIC2173-2</t>
-  </si>
-  <si>
-    <t>IBM2101-1</t>
-  </si>
-  <si>
-    <t>ICS2563-1</t>
-  </si>
-  <si>
-    <t>ICT2233-1</t>
-  </si>
-  <si>
-    <t>IBM2222-1</t>
-  </si>
-  <si>
-    <t>ICM3253-1</t>
-  </si>
-  <si>
-    <t>ICT3443-1</t>
-  </si>
-  <si>
-    <t>ICE2114-1</t>
-  </si>
-  <si>
-    <t>ICE2022-1</t>
-  </si>
-  <si>
-    <t>ICC2204-1</t>
-  </si>
-  <si>
-    <t>IIC3675-1</t>
-  </si>
-  <si>
-    <t>IIC2523-1</t>
-  </si>
-  <si>
-    <t>ICC3454-1</t>
-  </si>
-  <si>
-    <t>IIC2733-2</t>
-  </si>
-  <si>
-    <t>ICS2121-1</t>
-  </si>
-  <si>
-    <t>ICH2103-1</t>
-  </si>
-  <si>
-    <t>ICH3224-1</t>
-  </si>
-  <si>
-    <t>IEE3243-1</t>
-  </si>
-  <si>
-    <t>ICE2006-1</t>
-  </si>
-  <si>
-    <t>ICM3323-1</t>
-  </si>
-  <si>
-    <t>ICM2803-1</t>
-  </si>
-  <si>
-    <t>IIC2133-3</t>
-  </si>
-  <si>
-    <t>IEE2544-1</t>
-  </si>
-  <si>
-    <t>IEE3254-1</t>
-  </si>
-  <si>
-    <t>ICH3341-1</t>
-  </si>
-  <si>
-    <t>IEE2473-1</t>
-  </si>
-  <si>
-    <t>IEE2183-1</t>
-  </si>
-  <si>
-    <t>ICE3623-1</t>
-  </si>
-  <si>
-    <t>ICM3553-1</t>
-  </si>
-  <si>
-    <t>ING2031-1</t>
-  </si>
-  <si>
-    <t>IEE2123-1</t>
-  </si>
-  <si>
-    <t>IEE3694-1</t>
-  </si>
-  <si>
-    <t>ICT3435-1</t>
-  </si>
-  <si>
-    <t>ICH3124-1</t>
-  </si>
-  <si>
-    <t>IIC2433-1</t>
-  </si>
-  <si>
-    <t>IEE2273-1</t>
-  </si>
-  <si>
-    <t>ICM2022-1</t>
-  </si>
-  <si>
-    <t>ICE2614-1</t>
-  </si>
-  <si>
-    <t>ICC2414-1</t>
-  </si>
-  <si>
-    <t>IIC2143-1</t>
-  </si>
-  <si>
-    <t>IEE3313-1</t>
-  </si>
-  <si>
-    <t>IEE3393-1</t>
-  </si>
-  <si>
-    <t>IIC2283-1</t>
-  </si>
-  <si>
-    <t>IMM2003-1</t>
-  </si>
-  <si>
-    <t>IMT2112-1</t>
-  </si>
-  <si>
-    <t>IIQ2133-1</t>
-  </si>
-  <si>
-    <t>ICE3723-1</t>
-  </si>
-  <si>
-    <t>ICT2904-1</t>
-  </si>
-  <si>
-    <t>ICM3233-1</t>
-  </si>
-  <si>
-    <t>IEE3682-1</t>
-  </si>
-  <si>
-    <t>IIC2613-1</t>
-  </si>
-  <si>
-    <t>IIC2333-1</t>
-  </si>
-  <si>
-    <t>IIC3113-2</t>
-  </si>
-  <si>
-    <t>ICS3143-1</t>
-  </si>
-  <si>
-    <t>ICC2105-1</t>
   </si>
   <si>
     <t>A6_MS1 - Macrosección 1</t>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:2">
